--- a/data/trans_orig/Q45A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q45A_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>18072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10746</v>
+        <v>10882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28602</v>
+        <v>27943</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02604021987769594</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01548339694222464</v>
+        <v>0.01568018076795003</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04121190526796174</v>
+        <v>0.04026341061010524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -764,19 +764,19 @@
         <v>9712</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4912</v>
+        <v>4690</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16599</v>
+        <v>16769</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01410931624747498</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007136433478988014</v>
+        <v>0.006812947296403167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02411430423440474</v>
+        <v>0.02436084971266632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -785,19 +785,19 @@
         <v>27784</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18005</v>
+        <v>19114</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39794</v>
+        <v>40506</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02009919796784692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01302493950355256</v>
+        <v>0.01382724475012966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02878721735040244</v>
+        <v>0.02930206443212783</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>65798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50922</v>
+        <v>52207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82533</v>
+        <v>83490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09480821955620398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07337389499151532</v>
+        <v>0.07522531789909803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1189211044475598</v>
+        <v>0.120301050686912</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -835,19 +835,19 @@
         <v>31524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22461</v>
+        <v>22150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44628</v>
+        <v>44165</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04579642539277075</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03263087464258854</v>
+        <v>0.03217765320935981</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06483267072470295</v>
+        <v>0.06416100406528134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -856,19 +856,19 @@
         <v>97322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80013</v>
+        <v>80256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120530</v>
+        <v>118502</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0704026797923584</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05788104719416824</v>
+        <v>0.05805718827060899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08719149307006717</v>
+        <v>0.0857245566483608</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>340460</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>313865</v>
+        <v>313658</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>366319</v>
+        <v>368124</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4905682351352501</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4522470863388607</v>
+        <v>0.4519486139635519</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5278276504235849</v>
+        <v>0.5304288006763561</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>328</v>
@@ -906,19 +906,19 @@
         <v>318981</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>291961</v>
+        <v>290624</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>344893</v>
+        <v>342941</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4633991021535692</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4241456760235111</v>
+        <v>0.4222032270430938</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5010424532803659</v>
+        <v>0.4982059766412625</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>660</v>
@@ -927,19 +927,19 @@
         <v>659441</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>619507</v>
+        <v>622673</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>697868</v>
+        <v>696815</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4770393005869137</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4481505487534682</v>
+        <v>0.450440814887591</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5048368683783917</v>
+        <v>0.5040754692165924</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>183901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>161444</v>
+        <v>160572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>207105</v>
+        <v>204482</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2649826958144558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2326247488761946</v>
+        <v>0.2313674322234916</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2984171612278008</v>
+        <v>0.2946369731647645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>207</v>
@@ -977,19 +977,19 @@
         <v>210150</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187472</v>
+        <v>186278</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>234153</v>
+        <v>233992</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3052947633270777</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2723492269239124</v>
+        <v>0.2706151133265868</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3401646025112963</v>
+        <v>0.3399315055401417</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>392</v>
@@ -998,19 +998,19 @@
         <v>394051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>360383</v>
+        <v>360184</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>427291</v>
+        <v>427077</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2850561859495332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2607005467322897</v>
+        <v>0.2605565296321618</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3091017600447428</v>
+        <v>0.3089472972462479</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>85780</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69411</v>
+        <v>69733</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103059</v>
+        <v>105751</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1236006296163943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1000146224657711</v>
+        <v>0.1004776208213287</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1484979853964676</v>
+        <v>0.1523767217603674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -1048,19 +1048,19 @@
         <v>117984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>98489</v>
+        <v>99866</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>139850</v>
+        <v>139445</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1714003928791073</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1430799031231701</v>
+        <v>0.1450797791318349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2031660421461038</v>
+        <v>0.2025783852170124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>204</v>
@@ -1069,19 +1069,19 @@
         <v>203764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>176694</v>
+        <v>180025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>231344</v>
+        <v>231484</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1474026357033477</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1278204440137407</v>
+        <v>0.130229573987969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.167354049053246</v>
+        <v>0.1674552412964632</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>25050</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16831</v>
+        <v>15760</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36967</v>
+        <v>36253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02604500390702938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0174995203996502</v>
+        <v>0.01638579229570649</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03843471713523699</v>
+        <v>0.03769333447938099</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1194,19 +1194,19 @@
         <v>16712</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9460</v>
+        <v>10269</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26801</v>
+        <v>27144</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01725755303498779</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009768372339660148</v>
+        <v>0.01060443398496817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02767536169446405</v>
+        <v>0.02802969322258105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1215,19 +1215,19 @@
         <v>41762</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30925</v>
+        <v>30327</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57436</v>
+        <v>57180</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02163627061264144</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01602153942948595</v>
+        <v>0.01571198355575649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02975642160651041</v>
+        <v>0.02962401983216137</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>98567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80397</v>
+        <v>79343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119261</v>
+        <v>120318</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1024817992922315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08359062373132664</v>
+        <v>0.08249387745260708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1239978064492614</v>
+        <v>0.1250970005138945</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -1265,19 +1265,19 @@
         <v>66649</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51142</v>
+        <v>52884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83875</v>
+        <v>84506</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06882465720887199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05281144384234829</v>
+        <v>0.05461014856341084</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08661305287494522</v>
+        <v>0.08726385088492257</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>152</v>
@@ -1286,19 +1286,19 @@
         <v>165216</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>140649</v>
+        <v>141201</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>189815</v>
+        <v>192790</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0855957460946017</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0728678885107434</v>
+        <v>0.07315394408716715</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09833989101279185</v>
+        <v>0.09988126805906597</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>480150</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>447286</v>
+        <v>447315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>512363</v>
+        <v>510380</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4992204707461671</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4650509003261242</v>
+        <v>0.4650809492846831</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5327129240430301</v>
+        <v>0.5306510251856484</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>475</v>
@@ -1336,19 +1336,19 @@
         <v>495345</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>464304</v>
+        <v>462110</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>530163</v>
+        <v>526893</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5115125086033728</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4794586789038885</v>
+        <v>0.4771927001926278</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5474668143999437</v>
+        <v>0.5440898789882579</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>924</v>
@@ -1357,19 +1357,19 @@
         <v>975495</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>933349</v>
+        <v>931586</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1018741</v>
+        <v>1018315</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5053874829259289</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4835520229210208</v>
+        <v>0.4826386221739871</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5277922014328813</v>
+        <v>0.527571785908673</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>185767</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161907</v>
+        <v>163537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211577</v>
+        <v>211439</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1931453698596274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1683378391684751</v>
+        <v>0.1700321866930936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2199804825628612</v>
+        <v>0.2198368486269103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -1407,19 +1407,19 @@
         <v>207463</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>181424</v>
+        <v>182771</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>236144</v>
+        <v>234492</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2142338720811465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1873455409398491</v>
+        <v>0.1887360850637898</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2438511115713113</v>
+        <v>0.2421459340220879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>371</v>
@@ -1428,19 +1428,19 @@
         <v>393230</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>356802</v>
+        <v>358811</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>426172</v>
+        <v>427842</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2037256374738217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1848527894448166</v>
+        <v>0.1858938580822541</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2207924509008072</v>
+        <v>0.2216578547402234</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>172265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145490</v>
+        <v>147046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195552</v>
+        <v>197191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1791073561949446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1512684375492837</v>
+        <v>0.1528866353836752</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2033192363181917</v>
+        <v>0.2050224428433171</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -1478,19 +1478,19 @@
         <v>182224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157808</v>
+        <v>158163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>206937</v>
+        <v>207209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1881714090716209</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1629588839236841</v>
+        <v>0.1633252701833924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2136916498097333</v>
+        <v>0.2139717601843057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>318</v>
@@ -1499,19 +1499,19 @@
         <v>354489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>321842</v>
+        <v>320299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>392308</v>
+        <v>388005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1836548628930061</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1667408390765926</v>
+        <v>0.1659412758096261</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2032479450538643</v>
+        <v>0.2010188742578869</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>9147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4084</v>
+        <v>4293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16766</v>
+        <v>18594</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01349928424997241</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006026734598653891</v>
+        <v>0.00633584916031481</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02474278316556272</v>
+        <v>0.02744068775518306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1624,19 +1624,19 @@
         <v>8756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4047</v>
+        <v>4095</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15878</v>
+        <v>16073</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0128041095572639</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005918292772317125</v>
+        <v>0.005988588054063257</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02321818464785906</v>
+        <v>0.02350348010415352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1645,19 +1645,19 @@
         <v>17903</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10882</v>
+        <v>9909</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28284</v>
+        <v>28153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0131501068720326</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007993285657357388</v>
+        <v>0.007278307599495096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02077458385630418</v>
+        <v>0.02067893543487079</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>57779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43845</v>
+        <v>44452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76263</v>
+        <v>74404</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08526880351303372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06470545614246946</v>
+        <v>0.06560156992917528</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1125469864024339</v>
+        <v>0.1098035013217396</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -1695,19 +1695,19 @@
         <v>46034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34315</v>
+        <v>34884</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59236</v>
+        <v>60071</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06731612468893244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05018018936223398</v>
+        <v>0.0510123519022205</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08662287250843903</v>
+        <v>0.08784416338297173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -1716,19 +1716,19 @@
         <v>103813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>83468</v>
+        <v>85992</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>124413</v>
+        <v>125474</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07625140201015163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06130780568847579</v>
+        <v>0.06316202098787729</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09138251243680974</v>
+        <v>0.09216176276448407</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>285386</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>259607</v>
+        <v>259718</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>312519</v>
+        <v>311250</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4211637486746435</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3831198663796958</v>
+        <v>0.3832836084505131</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4612058607586982</v>
+        <v>0.4593324695706086</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>270</v>
@@ -1766,19 +1766,19 @@
         <v>266708</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>239146</v>
+        <v>242720</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>290835</v>
+        <v>294157</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3900149279250263</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3497103293167436</v>
+        <v>0.3549368244423116</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4252964584914908</v>
+        <v>0.4301536764346859</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>543</v>
@@ -1787,19 +1787,19 @@
         <v>552094</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>515859</v>
+        <v>512726</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>589111</v>
+        <v>586873</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4055180934611428</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3789033420487248</v>
+        <v>0.376601426140097</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4327074430431498</v>
+        <v>0.4310635363405924</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>147923</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>126785</v>
+        <v>129117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172045</v>
+        <v>171010</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2183008345306715</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1871047207045925</v>
+        <v>0.1905474923660569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2538988066351431</v>
+        <v>0.2523707739587531</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>160</v>
@@ -1837,19 +1837,19 @@
         <v>151628</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>133049</v>
+        <v>130687</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>173986</v>
+        <v>172907</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.22173001283205</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1945610821815757</v>
+        <v>0.1911068150807083</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2544247668287358</v>
+        <v>0.2528467066912284</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>304</v>
@@ -1858,19 +1858,19 @@
         <v>299552</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>270154</v>
+        <v>269270</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>332893</v>
+        <v>332475</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2200232670362309</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.198430432386886</v>
+        <v>0.1977811155318402</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.244512645404166</v>
+        <v>0.2442057551286152</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>177377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153038</v>
+        <v>153768</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>198708</v>
+        <v>203148</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.261767329031679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.225849268549231</v>
+        <v>0.2269254437014143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2932467564689115</v>
+        <v>0.299799243820577</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>209</v>
@@ -1908,19 +1908,19 @@
         <v>210715</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>186647</v>
+        <v>186941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>233265</v>
+        <v>234850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3081348249967273</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2729388958867656</v>
+        <v>0.2733684780489501</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3411105095708199</v>
+        <v>0.3434271148939943</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>372</v>
@@ -1929,19 +1929,19 @@
         <v>388092</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>354510</v>
+        <v>358256</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>423121</v>
+        <v>423332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.285057130620442</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2603910738819251</v>
+        <v>0.2631420100277633</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3107858925451544</v>
+        <v>0.3109410808264553</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>15983</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9923</v>
+        <v>10001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25660</v>
+        <v>26800</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01696268878438007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01053189758321824</v>
+        <v>0.01061431748278446</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02723379027968259</v>
+        <v>0.02844320796239396</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2054,19 +2054,19 @@
         <v>20474</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12735</v>
+        <v>12737</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32699</v>
+        <v>31855</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01971319460295248</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01226110680832862</v>
+        <v>0.01226315286169009</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03148309731427845</v>
+        <v>0.03067101618608972</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -2075,19 +2075,19 @@
         <v>36457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25630</v>
+        <v>25580</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50285</v>
+        <v>49567</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01840486324930201</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01293900835953845</v>
+        <v>0.01291367646838554</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02538593269736935</v>
+        <v>0.0250232173910443</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>120861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>103044</v>
+        <v>102747</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>143756</v>
+        <v>143014</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1282727595015812</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1093629941778315</v>
+        <v>0.1090473321013048</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1525716908525371</v>
+        <v>0.151783494523236</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>123</v>
@@ -2125,19 +2125,19 @@
         <v>124140</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>103809</v>
+        <v>104203</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>145112</v>
+        <v>144286</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1195251758461451</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09994956269203138</v>
+        <v>0.1003295334029583</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.139717413767799</v>
+        <v>0.1389218643284367</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>252</v>
@@ -2146,19 +2146,19 @@
         <v>245002</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>213850</v>
+        <v>218496</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>271253</v>
+        <v>276739</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1236861334008641</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.107959484586087</v>
+        <v>0.1103048622861275</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1369387000061892</v>
+        <v>0.1397082228881657</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>456825</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>428449</v>
+        <v>427213</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>485619</v>
+        <v>486246</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4848375133675112</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4547219936832317</v>
+        <v>0.4534104626808335</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5153975150980181</v>
+        <v>0.5160635298953363</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>532</v>
@@ -2196,19 +2196,19 @@
         <v>552266</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>518810</v>
+        <v>520810</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>584732</v>
+        <v>588051</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5317347382426868</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4995219929288997</v>
+        <v>0.5014483898022718</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5629932733144994</v>
+        <v>0.5661894001859985</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1013</v>
@@ -2217,19 +2217,19 @@
         <v>1009091</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>965671</v>
+        <v>966173</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1056379</v>
+        <v>1052178</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5094271651086533</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4875073927435762</v>
+        <v>0.4877609524214589</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5333000116543747</v>
+        <v>0.5311792672277253</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>187879</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>165847</v>
+        <v>164952</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>211535</v>
+        <v>214177</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1994001352731698</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1760170217476629</v>
+        <v>0.175067516764235</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2245065427566293</v>
+        <v>0.2273106544716583</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>147</v>
@@ -2267,19 +2267,19 @@
         <v>153874</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132418</v>
+        <v>130654</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>179679</v>
+        <v>177144</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1481534237572067</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.127494759080057</v>
+        <v>0.1257971778933938</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1729995498258496</v>
+        <v>0.1705579365247699</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>346</v>
@@ -2288,19 +2288,19 @@
         <v>341753</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>309396</v>
+        <v>310655</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>375714</v>
+        <v>377221</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1725299144357884</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1561946110127878</v>
+        <v>0.1568306320371588</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1896744838431662</v>
+        <v>0.1904352807913036</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>160674</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>139182</v>
+        <v>139020</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>184401</v>
+        <v>185217</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1705269030733577</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1477171507557836</v>
+        <v>0.1475452811046738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1957086369039666</v>
+        <v>0.196574934716326</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>176</v>
@@ -2338,19 +2338,19 @@
         <v>187857</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>163356</v>
+        <v>161899</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>215841</v>
+        <v>211319</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.180873467551009</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.157282656981429</v>
+        <v>0.1558798336430096</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2078165586097196</v>
+        <v>0.2034631113065274</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>344</v>
@@ -2359,19 +2359,19 @@
         <v>348532</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>315811</v>
+        <v>317033</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>381007</v>
+        <v>385441</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1759519238053923</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1594334755948497</v>
+        <v>0.1600504555481993</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1923467616867229</v>
+        <v>0.1945851135345797</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>68252</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51165</v>
+        <v>54285</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86748</v>
+        <v>86723</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02083625562604561</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01561969347838599</v>
+        <v>0.0165724433288598</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02648265359034903</v>
+        <v>0.0264751649147095</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -2484,19 +2484,19 @@
         <v>55655</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>41387</v>
+        <v>41835</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>71511</v>
+        <v>73227</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01646976803847081</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01224761038057971</v>
+        <v>0.01238013299719022</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02116223120500961</v>
+        <v>0.02166998553985662</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>119</v>
@@ -2505,19 +2505,19 @@
         <v>123907</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>103096</v>
+        <v>101922</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>147619</v>
+        <v>147776</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01861904041890844</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01549187633094301</v>
+        <v>0.01531544942740811</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02218212445621518</v>
+        <v>0.02220577626867919</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>343006</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>308875</v>
+        <v>310437</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>378197</v>
+        <v>382413</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1047138780329942</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0942943436190382</v>
+        <v>0.09477108067896767</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1154572269759525</v>
+        <v>0.1167443143651634</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>267</v>
@@ -2555,19 +2555,19 @@
         <v>268347</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>240856</v>
+        <v>238221</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>303314</v>
+        <v>300605</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07941151010374871</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07127604958603057</v>
+        <v>0.07049619729798275</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08975919808383821</v>
+        <v>0.08895759082850534</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>600</v>
@@ -2576,19 +2576,19 @@
         <v>611353</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>559598</v>
+        <v>564099</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>656593</v>
+        <v>659592</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09186584083510031</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08408876892908972</v>
+        <v>0.08476523461822177</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09866390389203183</v>
+        <v>0.09911460997097687</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1562822</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1505965</v>
+        <v>1506277</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1621123</v>
+        <v>1617221</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4771030237041693</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4597455718300453</v>
+        <v>0.4598408276021684</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4949015845993917</v>
+        <v>0.4937102662122875</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1605</v>
@@ -2626,19 +2626,19 @@
         <v>1633301</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1574544</v>
+        <v>1578974</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1689443</v>
+        <v>1688514</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4833398703239353</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4659520780004397</v>
+        <v>0.4672629907903262</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4999538460642532</v>
+        <v>0.4996789490196568</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3140</v>
@@ -2647,19 +2647,19 @@
         <v>3196122</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3122318</v>
+        <v>3115716</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3284691</v>
+        <v>3278737</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4802699698806058</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4691796158677679</v>
+        <v>0.4681876664139461</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4935788778568755</v>
+        <v>0.4926841582978392</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>705471</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>663211</v>
+        <v>660314</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>752960</v>
+        <v>753841</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2153684656847413</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2024670757929468</v>
+        <v>0.2015827191048645</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2298660091396456</v>
+        <v>0.2301348053192921</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>707</v>
@@ -2697,19 +2697,19 @@
         <v>723115</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>678661</v>
+        <v>674854</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>773408</v>
+        <v>771873</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2139900506861264</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2008349200699437</v>
+        <v>0.1997082967517219</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2288732851008742</v>
+        <v>0.2284189745840967</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1413</v>
@@ -2718,19 +2718,19 @@
         <v>1428586</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1366411</v>
+        <v>1365883</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1496732</v>
+        <v>1494592</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2146685340725751</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2053256702090266</v>
+        <v>0.2052463889295901</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.224908587390006</v>
+        <v>0.2245869762394344</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>596097</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>554828</v>
+        <v>549590</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>639851</v>
+        <v>644745</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1819783769520496</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1693794804747126</v>
+        <v>0.1677805306716331</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1953357703297835</v>
+        <v>0.1968297349733381</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>664</v>
@@ -2768,19 +2768,19 @@
         <v>698780</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>648857</v>
+        <v>660169</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>745942</v>
+        <v>751771</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2067888008477187</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1920151334466805</v>
+        <v>0.1953627522576032</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2207453008485209</v>
+        <v>0.2224702218472289</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1238</v>
@@ -2789,19 +2789,19 @@
         <v>1294877</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1231618</v>
+        <v>1231175</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1361041</v>
+        <v>1360597</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1945766147928104</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1850708887747518</v>
+        <v>0.1850043365327224</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2045187637251759</v>
+        <v>0.2044521458939658</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>10441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5309</v>
+        <v>5244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19648</v>
+        <v>19749</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01486208740775514</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007557106940451735</v>
+        <v>0.007464280168600128</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02796787703934156</v>
+        <v>0.02811266964744452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3154,19 +3154,19 @@
         <v>6157</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2902</v>
+        <v>2088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13604</v>
+        <v>12743</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008845357694922343</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004169340007188411</v>
+        <v>0.003000339684830192</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01954471131781453</v>
+        <v>0.01830841164452227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -3175,19 +3175,19 @@
         <v>16597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9798</v>
+        <v>9236</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26638</v>
+        <v>25592</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01186763528017548</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007006112169073622</v>
+        <v>0.006604090400366997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01904681337785947</v>
+        <v>0.01829877834720363</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>52061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39533</v>
+        <v>39165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68119</v>
+        <v>67880</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07410763151086322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05627386231016557</v>
+        <v>0.05575112678367759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0969652843418171</v>
+        <v>0.09662530764397247</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -3225,19 +3225,19 @@
         <v>41341</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30166</v>
+        <v>30553</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54466</v>
+        <v>56230</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05939480034478577</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0433395479896555</v>
+        <v>0.04389571085837733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07825157500357111</v>
+        <v>0.08078650724873374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -3246,19 +3246,19 @@
         <v>93402</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75686</v>
+        <v>75373</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>113506</v>
+        <v>113265</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0667852370057529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05411763733818595</v>
+        <v>0.05389395614722241</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08116041298205173</v>
+        <v>0.08098773525651101</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>261657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>236614</v>
+        <v>234826</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>287115</v>
+        <v>288496</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3724631081748401</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3368156134520705</v>
+        <v>0.3342697704198181</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4087021156471379</v>
+        <v>0.4106679684326803</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>221</v>
@@ -3296,19 +3296,19 @@
         <v>236578</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>211425</v>
+        <v>211507</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>262981</v>
+        <v>261916</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3398929023605836</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3037564629782905</v>
+        <v>0.3038743240182635</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3778269336976379</v>
+        <v>0.3762967999051295</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>478</v>
@@ -3317,19 +3317,19 @@
         <v>498234</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>459076</v>
+        <v>463304</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>536596</v>
+        <v>534783</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3562533186793621</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3282542899182093</v>
+        <v>0.331277437188182</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3836834757178071</v>
+        <v>0.3823866556583407</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>181806</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158201</v>
+        <v>156257</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>205842</v>
+        <v>206537</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2587975224426549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2251951605073847</v>
+        <v>0.222428225236118</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2930118346088728</v>
+        <v>0.2940012064331214</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>178</v>
@@ -3367,19 +3367,19 @@
         <v>193494</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170781</v>
+        <v>172473</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221158</v>
+        <v>218247</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2779945373817915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.245361774003705</v>
+        <v>0.247793689926762</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3177386696468263</v>
+        <v>0.3135574022214105</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>348</v>
@@ -3388,19 +3388,19 @@
         <v>375300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>341843</v>
+        <v>340166</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>408218</v>
+        <v>410069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2683516398737686</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2444284922164872</v>
+        <v>0.2432297478373949</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2918891510736452</v>
+        <v>0.2932125664228096</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>196539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>170768</v>
+        <v>173462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220355</v>
+        <v>221887</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2797696504638866</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2430846512084996</v>
+        <v>0.2469201376715191</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3136710843649631</v>
+        <v>0.315851241662113</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>205</v>
@@ -3438,19 +3438,19 @@
         <v>218466</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>194374</v>
+        <v>195318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>245514</v>
+        <v>243385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3138724022179168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2792587187277386</v>
+        <v>0.2806152759913974</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3527320455204713</v>
+        <v>0.3496724372435718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>391</v>
@@ -3459,19 +3459,19 @@
         <v>415005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>379905</v>
+        <v>382366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>451370</v>
+        <v>453566</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2967421691609409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.27164427146856</v>
+        <v>0.2734041161760329</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3227442737992187</v>
+        <v>0.3243138147416426</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>15068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8454</v>
+        <v>8336</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26433</v>
+        <v>24736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01483131710981128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008321304127689777</v>
+        <v>0.008204593019880102</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02601688781230934</v>
+        <v>0.02434683392887192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3584,19 +3584,19 @@
         <v>11371</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6004</v>
+        <v>6144</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19809</v>
+        <v>19666</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01105239314507396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005835844712200647</v>
+        <v>0.005972238909717191</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0192539153387217</v>
+        <v>0.01911479655715091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -3605,19 +3605,19 @@
         <v>26439</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17998</v>
+        <v>17416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38578</v>
+        <v>38602</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01292998999925923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008801905429923262</v>
+        <v>0.008517004324964684</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01886615186346848</v>
+        <v>0.0188780916727313</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>107938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88003</v>
+        <v>88462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>129305</v>
+        <v>128689</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1062398047775903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08661837921885475</v>
+        <v>0.08707029590725412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1272714235015934</v>
+        <v>0.126665041719439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -3655,19 +3655,19 @@
         <v>76181</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60629</v>
+        <v>58887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94955</v>
+        <v>94929</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07404685957565187</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0589308997708448</v>
+        <v>0.05723721940696622</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09229502333057982</v>
+        <v>0.09226973602254598</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>167</v>
@@ -3676,19 +3676,19 @@
         <v>184119</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>156580</v>
+        <v>158164</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>210893</v>
+        <v>214320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09004225223296887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07657430362418079</v>
+        <v>0.07734913611132874</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1031360319143898</v>
+        <v>0.1048121830299276</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>333041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>302949</v>
+        <v>304447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>365293</v>
+        <v>365894</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3278025170041886</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2981834969393269</v>
+        <v>0.2996581811999759</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3595468598014382</v>
+        <v>0.3601387001865464</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>298</v>
@@ -3726,19 +3726,19 @@
         <v>325444</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>296205</v>
+        <v>295498</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>355070</v>
+        <v>360373</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3163267248866065</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2879067348563293</v>
+        <v>0.287219939612112</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3451222979883173</v>
+        <v>0.350277096656774</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>611</v>
@@ -3747,19 +3747,19 @@
         <v>658486</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>612771</v>
+        <v>616979</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>703117</v>
+        <v>704617</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3220285890628427</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2996722682626922</v>
+        <v>0.3017299425346593</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.343855139591596</v>
+        <v>0.3445886277573633</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>226168</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>200081</v>
+        <v>199913</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255542</v>
+        <v>253204</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2226099794732403</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1969333274565025</v>
+        <v>0.1967682350092711</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2515223389962435</v>
+        <v>0.2492206830302183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>226</v>
@@ -3797,19 +3797,19 @@
         <v>246002</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>220667</v>
+        <v>219103</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>274957</v>
+        <v>275482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2391104867129424</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2144852694422994</v>
+        <v>0.2129649813525417</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2672537143464172</v>
+        <v>0.2677642891414069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>430</v>
@@ -3818,19 +3818,19 @@
         <v>472170</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>435880</v>
+        <v>437711</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>513419</v>
+        <v>514844</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2309120416595819</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2131647290975237</v>
+        <v>0.2140602605453945</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.251084683473446</v>
+        <v>0.2517815800229951</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>333767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303487</v>
+        <v>300767</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366065</v>
+        <v>366260</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3285163816351695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2987126490578271</v>
+        <v>0.2960355253918286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3603062833975907</v>
+        <v>0.3604983519367942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -3868,19 +3868,19 @@
         <v>369824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>339373</v>
+        <v>338097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>402520</v>
+        <v>399456</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3594635356797253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3298655522124799</v>
+        <v>0.3286250256541158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3912433100251184</v>
+        <v>0.3882654063873815</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>638</v>
@@ -3889,19 +3889,19 @@
         <v>703591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>663865</v>
+        <v>660371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752448</v>
+        <v>746171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3440871270453473</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.324659413457398</v>
+        <v>0.3229505127784732</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3679801669614335</v>
+        <v>0.3649105761451991</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>14524</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7678</v>
+        <v>8645</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23824</v>
+        <v>24428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01917081535497216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01013479835642202</v>
+        <v>0.01141034969095844</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03144580556666909</v>
+        <v>0.03224306065998309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -4014,19 +4014,19 @@
         <v>13296</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7143</v>
+        <v>7200</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22788</v>
+        <v>21515</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0171078646678959</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009190709109100009</v>
+        <v>0.009264177475162342</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02932154772427032</v>
+        <v>0.02768397661035973</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -4035,19 +4035,19 @@
         <v>27820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19096</v>
+        <v>19030</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40034</v>
+        <v>40016</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01812620078032412</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01244211702108764</v>
+        <v>0.01239898548371464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02608398385444395</v>
+        <v>0.02607278996834862</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>79852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62326</v>
+        <v>63948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97294</v>
+        <v>100553</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1053977994722896</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08226485739142392</v>
+        <v>0.08440622619190274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1284203874359978</v>
+        <v>0.1327221038865814</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -4085,19 +4085,19 @@
         <v>68865</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51953</v>
+        <v>53941</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>87336</v>
+        <v>86682</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08861014240080523</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06684859869329381</v>
+        <v>0.06940618033499973</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1123761278907654</v>
+        <v>0.1115354228733431</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>137</v>
@@ -4106,19 +4106,19 @@
         <v>148717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126106</v>
+        <v>126533</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>174485</v>
+        <v>174309</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09689704792213021</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0821648426330083</v>
+        <v>0.0824428608155672</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.113686270918357</v>
+        <v>0.1135716389321803</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>315644</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>288119</v>
+        <v>285516</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>343582</v>
+        <v>345293</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4166234774786535</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3802931681554488</v>
+        <v>0.3768577186162516</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4534994478774014</v>
+        <v>0.4557588293529256</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>284</v>
@@ -4156,19 +4156,19 @@
         <v>313129</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>283799</v>
+        <v>285516</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>343162</v>
+        <v>340169</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4029077929143028</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3651675195277875</v>
+        <v>0.367377658877524</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4415508785490788</v>
+        <v>0.4376998654059686</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>575</v>
@@ -4177,19 +4177,19 @@
         <v>628773</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>588201</v>
+        <v>588745</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>671448</v>
+        <v>672076</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4096782780189893</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3832433282457595</v>
+        <v>0.3835977221582614</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4374835262553436</v>
+        <v>0.4378921434200348</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>152555</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>131020</v>
+        <v>129630</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179154</v>
+        <v>177493</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2013595326345756</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1729350253075014</v>
+        <v>0.1711008699397699</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2364684507517175</v>
+        <v>0.2342763041556702</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>138</v>
@@ -4227,19 +4227,19 @@
         <v>151642</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>129587</v>
+        <v>128388</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>177171</v>
+        <v>174604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1951203175111638</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1667410353161926</v>
+        <v>0.1651982961200954</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2279678741977528</v>
+        <v>0.2246655787342074</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>270</v>
@@ -4248,19 +4248,19 @@
         <v>304197</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>273404</v>
+        <v>271754</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>341206</v>
+        <v>340853</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1982001866099173</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1781368611589097</v>
+        <v>0.1770618861375329</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2223133350074822</v>
+        <v>0.2220831269354103</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>195049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>170318</v>
+        <v>170522</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>220618</v>
+        <v>221272</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2574483750595091</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2248052770140865</v>
+        <v>0.2250754845684901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2911973300989116</v>
+        <v>0.292060333480215</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -4298,19 +4298,19 @@
         <v>230241</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>206140</v>
+        <v>203428</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258149</v>
+        <v>258859</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2962538825058322</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2652431961135524</v>
+        <v>0.2617537060509591</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3321635018400971</v>
+        <v>0.3330768628740186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>385</v>
@@ -4319,19 +4319,19 @@
         <v>425290</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>390079</v>
+        <v>389868</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>464379</v>
+        <v>462408</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.277098286668639</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2541570530156285</v>
+        <v>0.2540189980792253</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3025667523403998</v>
+        <v>0.3012827068345476</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>19135</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11444</v>
+        <v>11385</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32702</v>
+        <v>32003</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02018992623374313</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01207521778690094</v>
+        <v>0.01201229591015726</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03450513048123343</v>
+        <v>0.03376823926845598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4444,19 +4444,19 @@
         <v>20048</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12251</v>
+        <v>12636</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30122</v>
+        <v>31048</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01909602070581665</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01166959429650093</v>
+        <v>0.01203645509039312</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02869208091184883</v>
+        <v>0.02957363801795396</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -4465,19 +4465,19 @@
         <v>39183</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26910</v>
+        <v>27752</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52620</v>
+        <v>53904</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01961501591863131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01347116660328017</v>
+        <v>0.01389286607329888</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02634168862741577</v>
+        <v>0.02698468670553622</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>117088</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>96455</v>
+        <v>97841</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>138301</v>
+        <v>139486</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1235447841624333</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1017742704926946</v>
+        <v>0.103236617086073</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1459272364619597</v>
+        <v>0.1471774152128263</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>118</v>
@@ -4515,19 +4515,19 @@
         <v>122988</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>102961</v>
+        <v>103158</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>144983</v>
+        <v>143884</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1171481358524112</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09807255220535036</v>
+        <v>0.09825997614310007</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1380992104971165</v>
+        <v>0.1370526670556509</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>234</v>
@@ -4536,19 +4536,19 @@
         <v>240076</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>212930</v>
+        <v>212890</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>271647</v>
+        <v>271130</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1201829773137696</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1065937203880544</v>
+        <v>0.1065736330665971</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1359878145562899</v>
+        <v>0.1357289604496769</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>382917</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>355811</v>
+        <v>353130</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>414938</v>
+        <v>412394</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.404031839106745</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3754317505436566</v>
+        <v>0.3726025728290625</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4378192256660645</v>
+        <v>0.4351348014996315</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>325</v>
@@ -4586,19 +4586,19 @@
         <v>339744</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>305988</v>
+        <v>309644</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>370198</v>
+        <v>369120</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3236133221165505</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2914597480108356</v>
+        <v>0.2949425986312227</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3526209535866185</v>
+        <v>0.3515944659687885</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>698</v>
@@ -4607,19 +4607,19 @@
         <v>722661</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>679683</v>
+        <v>679751</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>767363</v>
+        <v>768422</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3617672799072919</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3402519566497724</v>
+        <v>0.3402863673642106</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3841451897658874</v>
+        <v>0.3846753834106802</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>161848</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>141609</v>
+        <v>138830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>187305</v>
+        <v>184835</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1707729079457007</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1494172782502897</v>
+        <v>0.146485230224485</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1976335245030417</v>
+        <v>0.1950277731934032</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>201</v>
@@ -4657,19 +4657,19 @@
         <v>209711</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>185564</v>
+        <v>184277</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>238847</v>
+        <v>235543</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1997541149315122</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1767534540014202</v>
+        <v>0.1755276762417911</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.227506987404624</v>
+        <v>0.2243597962602221</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>361</v>
@@ -4678,19 +4678,19 @@
         <v>371559</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>336738</v>
+        <v>337607</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>405298</v>
+        <v>408474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1860042002421351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1685723773247289</v>
+        <v>0.1690073347859705</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2028941429974657</v>
+        <v>0.2044836542933244</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>266751</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>237620</v>
+        <v>238532</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>296442</v>
+        <v>295642</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2814605425513779</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2507234467514143</v>
+        <v>0.2516853001192521</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3127888257166461</v>
+        <v>0.3119445823512323</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>338</v>
@@ -4728,19 +4728,19 @@
         <v>357355</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>326411</v>
+        <v>327650</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>388695</v>
+        <v>390634</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3403884063937095</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3109136133049121</v>
+        <v>0.3120931948371171</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3702402970573141</v>
+        <v>0.3720871462443191</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>582</v>
@@ -4749,19 +4749,19 @@
         <v>624107</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>582743</v>
+        <v>584720</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>665565</v>
+        <v>665574</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.312430526618172</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2917235749651211</v>
+        <v>0.2927133964172726</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3331844695717758</v>
+        <v>0.3331893103579122</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>59168</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44377</v>
+        <v>44471</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>74957</v>
+        <v>79117</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01728115843995079</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01296119301040158</v>
+        <v>0.01298859106119925</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02189269242977118</v>
+        <v>0.02310761473151063</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>49</v>
@@ -4874,19 +4874,19 @@
         <v>50871</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>37895</v>
+        <v>37216</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>65675</v>
+        <v>64961</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01432236681212747</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01066896831750081</v>
+        <v>0.01047783278194665</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01849023529038519</v>
+        <v>0.0182893168794003</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>104</v>
@@ -4895,19 +4895,19 @@
         <v>110039</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>91786</v>
+        <v>92633</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>134390</v>
+        <v>132664</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01577461025745332</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01315785377903081</v>
+        <v>0.01327934088007964</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01926534356637126</v>
+        <v>0.01901791839220411</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>356939</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>319862</v>
+        <v>324519</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>397425</v>
+        <v>394345</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1042507331275394</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09342168739003741</v>
+        <v>0.09478195444007786</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1160756084975566</v>
+        <v>0.1151758842070489</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>288</v>
@@ -4945,19 +4945,19 @@
         <v>309375</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>278830</v>
+        <v>277974</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>345151</v>
+        <v>347464</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08710179654012423</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07850222629443165</v>
+        <v>0.07826119981957554</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0971741082348901</v>
+        <v>0.09782546919965306</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>627</v>
@@ -4966,19 +4966,19 @@
         <v>666314</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>616238</v>
+        <v>621682</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>720858</v>
+        <v>719385</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09551889172154585</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08834034451507991</v>
+        <v>0.08912068756807717</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1033380933850468</v>
+        <v>0.1031268985511782</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>1293259</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1233510</v>
+        <v>1235072</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1354198</v>
+        <v>1352927</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3777207816017501</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3602698559317137</v>
+        <v>0.360726122600744</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3955191613233451</v>
+        <v>0.3951479306949963</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1128</v>
@@ -5016,19 +5016,19 @@
         <v>1214896</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1156574</v>
+        <v>1154199</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1274468</v>
+        <v>1274886</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3420430465548482</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3256230030985838</v>
+        <v>0.3249543658665077</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3588152116550628</v>
+        <v>0.3589328202024042</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2362</v>
@@ -5037,19 +5037,19 @@
         <v>2508154</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2432295</v>
+        <v>2427968</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2595380</v>
+        <v>2595168</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3595545050768708</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3486796800649412</v>
+        <v>0.3480593869093448</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3720586417089939</v>
+        <v>0.37202821488497</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>722377</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>675392</v>
+        <v>675655</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>771165</v>
+        <v>775198</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2109838852854016</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1972610865534791</v>
+        <v>0.1973379590661228</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2252333446406928</v>
+        <v>0.2264112946537177</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>743</v>
@@ -5087,19 +5087,19 @@
         <v>800850</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>745755</v>
+        <v>748335</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>846892</v>
+        <v>850516</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2254722238555406</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2099606088609185</v>
+        <v>0.2106871524008802</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2384348814334864</v>
+        <v>0.2394552594112742</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1409</v>
@@ -5108,19 +5108,19 @@
         <v>1523227</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1452283</v>
+        <v>1451671</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1600767</v>
+        <v>1592460</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2183610117903554</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2081909341292402</v>
+        <v>0.2081031484478512</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2294766347418482</v>
+        <v>0.2282858140640684</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>992106</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>939393</v>
+        <v>937414</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1052313</v>
+        <v>1048698</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2897634415453582</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2743674417817206</v>
+        <v>0.2737895468089789</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3073479225019144</v>
+        <v>0.3062920047145535</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1084</v>
@@ -5158,19 +5158,19 @@
         <v>1175887</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1121921</v>
+        <v>1113661</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1237371</v>
+        <v>1234221</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3310605662373596</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3158669213877169</v>
+        <v>0.3135414334082601</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3483708841811725</v>
+        <v>0.3474838297131388</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1996</v>
@@ -5179,19 +5179,19 @@
         <v>2167993</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2079528</v>
+        <v>2084728</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2247515</v>
+        <v>2246182</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3107909811537747</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2981090982515354</v>
+        <v>0.2988545190095565</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3221906870692582</v>
+        <v>0.3219996760947431</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>3946</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9973</v>
+        <v>9781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0058479289944874</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001481580594653098</v>
+        <v>0.001468125908844986</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01477881406720985</v>
+        <v>0.01449409029857136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5544,19 +5544,19 @@
         <v>8296</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3766</v>
+        <v>4511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14306</v>
+        <v>15701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01235020628685714</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005606492836092727</v>
+        <v>0.006715238602389695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02129896592981323</v>
+        <v>0.02337524218404514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -5565,19 +5565,19 @@
         <v>12242</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6464</v>
+        <v>6569</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19244</v>
+        <v>19946</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009091576275309876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0048008283713137</v>
+        <v>0.004878663538724176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01429207244028818</v>
+        <v>0.01481321722667266</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>78988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62034</v>
+        <v>62534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96385</v>
+        <v>98430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1170543588652581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09192927486671756</v>
+        <v>0.09267072239699575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1428342461785274</v>
+        <v>0.1458661155402264</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -5615,19 +5615,19 @@
         <v>59029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45023</v>
+        <v>45583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73009</v>
+        <v>74329</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0878803262383501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06702946425758606</v>
+        <v>0.06786293064895904</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1086935718146435</v>
+        <v>0.1106582572454608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>135</v>
@@ -5636,19 +5636,19 @@
         <v>138017</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>115730</v>
+        <v>115566</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>161206</v>
+        <v>161234</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1025009543662001</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08594874197675662</v>
+        <v>0.08582689927734877</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1197227636144238</v>
+        <v>0.119743462833178</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>231681</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>206884</v>
+        <v>207215</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>255387</v>
+        <v>256951</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3433325726909916</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3065852747156564</v>
+        <v>0.3070762113040708</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3784636342922556</v>
+        <v>0.380780263818226</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -5686,19 +5686,19 @@
         <v>169663</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>145574</v>
+        <v>148476</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>192639</v>
+        <v>192877</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2525886215593207</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2167256840513435</v>
+        <v>0.2210465496451055</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2867939877686693</v>
+        <v>0.2871486275202033</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>395</v>
@@ -5707,19 +5707,19 @@
         <v>401344</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>370804</v>
+        <v>368708</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>438403</v>
+        <v>435961</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2980651445109085</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2753844993384174</v>
+        <v>0.2738274570086489</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3255881375582722</v>
+        <v>0.3237743981299508</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>186804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>162989</v>
+        <v>162460</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>211639</v>
+        <v>210120</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.276828852386169</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2415369238148183</v>
+        <v>0.2407533869002453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3136318132219266</v>
+        <v>0.3113808615063426</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>230</v>
@@ -5757,19 +5757,19 @@
         <v>232198</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>207952</v>
+        <v>208088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>256019</v>
+        <v>258040</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3456881062951024</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3095920275946619</v>
+        <v>0.3097944612449476</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3811521724614034</v>
+        <v>0.3841618096040763</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>414</v>
@@ -5778,19 +5778,19 @@
         <v>419002</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>385363</v>
+        <v>382791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>456584</v>
+        <v>452701</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3111791456231673</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2861964127679478</v>
+        <v>0.2842864525712218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3390903411331496</v>
+        <v>0.336206509460624</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>173381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150406</v>
+        <v>151086</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>196003</v>
+        <v>195858</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.256936287063094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2228892095190046</v>
+        <v>0.2238975260927159</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2904605527718591</v>
+        <v>0.2902460263945308</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>191</v>
@@ -5828,19 +5828,19 @@
         <v>202512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>179355</v>
+        <v>178663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>227118</v>
+        <v>227690</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3014927396203697</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2670176729428294</v>
+        <v>0.2659872898216494</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3381260167903051</v>
+        <v>0.3389779830223447</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>360</v>
@@ -5849,19 +5849,19 @@
         <v>375892</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>339118</v>
+        <v>344199</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>410799</v>
+        <v>409529</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2791631792244141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.251852350300578</v>
+        <v>0.2556252453360544</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3050874339800755</v>
+        <v>0.3041437660989224</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>10350</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4722</v>
+        <v>4997</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19457</v>
+        <v>19822</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01015481801878901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004633061572136284</v>
+        <v>0.004902711438676122</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01909051997785463</v>
+        <v>0.01944902118778285</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5977,16 +5977,16 @@
         <v>2050</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11767</v>
+        <v>12339</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00511458656444782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001966050676082298</v>
+        <v>0.001965623797334969</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01128242098836699</v>
+        <v>0.01183123393979304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -5995,19 +5995,19 @@
         <v>15684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9165</v>
+        <v>8353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27708</v>
+        <v>25868</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007605692064401827</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004444454185649407</v>
+        <v>0.004050762545674824</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0134370212805889</v>
+        <v>0.01254463827259953</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>146321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125625</v>
+        <v>124841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>171166</v>
+        <v>170103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1435682970023059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1232610446859025</v>
+        <v>0.1224926300772802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1679460656000303</v>
+        <v>0.1669027977020922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>100</v>
@@ -6045,19 +6045,19 @@
         <v>103678</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85961</v>
+        <v>85061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125131</v>
+        <v>124032</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09941194423698589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08242361358542169</v>
+        <v>0.08156082849403519</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1199824515120189</v>
+        <v>0.1189280830008393</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>230</v>
@@ -6066,19 +6066,19 @@
         <v>249999</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>222071</v>
+        <v>217904</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>281639</v>
+        <v>280298</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1212359684366793</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.107692185853991</v>
+        <v>0.1056717646903188</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1365794447841495</v>
+        <v>0.1359292908530256</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>355478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>322473</v>
+        <v>322664</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>383284</v>
+        <v>385067</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3487895883990706</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3164059760547285</v>
+        <v>0.3165930058502943</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3760726790637084</v>
+        <v>0.3778221941302629</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>338</v>
@@ -6116,19 +6116,19 @@
         <v>350716</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>320173</v>
+        <v>321091</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>382630</v>
+        <v>385319</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3362849032676483</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3069983903151591</v>
+        <v>0.3078792002216835</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3668859126326609</v>
+        <v>0.3694641058041153</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>667</v>
@@ -6137,19 +6137,19 @@
         <v>706194</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>665241</v>
+        <v>663812</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>750095</v>
+        <v>755791</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3424652722027394</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.322605663309717</v>
+        <v>0.3219125028840781</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3637552324423551</v>
+        <v>0.3665174342470625</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>331572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>299298</v>
+        <v>302062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>362899</v>
+        <v>362115</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3253340961633244</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2936665642385569</v>
+        <v>0.2963792967770247</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.356071268489366</v>
+        <v>0.3553024422843227</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>325</v>
@@ -6187,19 +6187,19 @@
         <v>348365</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>320881</v>
+        <v>313222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>383913</v>
+        <v>380442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3340307110403067</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3076773911437429</v>
+        <v>0.3003336425065402</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3681164478918352</v>
+        <v>0.3647879040398038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>639</v>
@@ -6208,19 +6208,19 @@
         <v>679937</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>634988</v>
+        <v>637511</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>723852</v>
+        <v>725763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3297324589962715</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3079345005585226</v>
+        <v>0.3091579781047044</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3510285065192724</v>
+        <v>0.351955259651491</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>175454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152239</v>
+        <v>153049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199229</v>
+        <v>202350</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.17215320041651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1493750532453556</v>
+        <v>0.1501690303256078</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1954804524240435</v>
+        <v>0.198542822930724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>209</v>
@@ -6258,19 +6258,19 @@
         <v>234820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>207074</v>
+        <v>206460</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>262635</v>
+        <v>262944</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2251578548906113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1985533063058906</v>
+        <v>0.1979643443757685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2518285679922865</v>
+        <v>0.2521247263232806</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>375</v>
@@ -6279,19 +6279,19 @@
         <v>410274</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>373127</v>
+        <v>372681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>452941</v>
+        <v>449207</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.198960608299908</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1809460795593495</v>
+        <v>0.1807300726476004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2196516143731818</v>
+        <v>0.2178406635381848</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>3338</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9888</v>
+        <v>9184</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004406707320979688</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001238643136161167</v>
+        <v>0.001226269936775449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01305263144136166</v>
+        <v>0.01212298801372903</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -6404,19 +6404,19 @@
         <v>11722</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6063</v>
+        <v>5679</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22180</v>
+        <v>21882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01498586848691897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007750741342559358</v>
+        <v>0.007260648278883879</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02835545345522068</v>
+        <v>0.02797486418983314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6425,19 +6425,19 @@
         <v>15060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8116</v>
+        <v>8460</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26569</v>
+        <v>26241</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009781017230003391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005271081748851287</v>
+        <v>0.005494440635770544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01725576843591692</v>
+        <v>0.01704290707864563</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>121735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>100552</v>
+        <v>100475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145142</v>
+        <v>142770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1606995282517785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1327361747390573</v>
+        <v>0.1326347505932805</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1915988787978858</v>
+        <v>0.1884675525115698</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -6475,19 +6475,19 @@
         <v>103013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85162</v>
+        <v>85064</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124118</v>
+        <v>123255</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1316972493799162</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1088761499784347</v>
+        <v>0.1087502382400473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1586791863135685</v>
+        <v>0.157575221989345</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>212</v>
@@ -6496,19 +6496,19 @@
         <v>224748</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>195918</v>
+        <v>196951</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>253299</v>
+        <v>253994</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1459661073046481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1272417960408046</v>
+        <v>0.1279126792296038</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1645090038171076</v>
+        <v>0.1649601275951292</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>316461</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>287271</v>
+        <v>288614</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>343622</v>
+        <v>344877</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4177525699744645</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3792197671664777</v>
+        <v>0.3809926523783945</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4536072275557747</v>
+        <v>0.4552638723458954</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>315</v>
@@ -6546,19 +6546,19 @@
         <v>332404</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>305252</v>
+        <v>304842</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>363673</v>
+        <v>357916</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4249628912398117</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3902504831881811</v>
+        <v>0.3897258532965379</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4649390826920971</v>
+        <v>0.4575783035479912</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>595</v>
@@ -6567,19 +6567,19 @@
         <v>648865</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>605827</v>
+        <v>605742</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>690139</v>
+        <v>688293</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.421415478631945</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3934635694594109</v>
+        <v>0.3934081347437585</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4482214765475862</v>
+        <v>0.4470223047737136</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>179985</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158708</v>
+        <v>157867</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>207775</v>
+        <v>204886</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2375939960483799</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2095066341648274</v>
+        <v>0.2083959224525203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2742794761278654</v>
+        <v>0.2704652512373799</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>172</v>
@@ -6617,19 +6617,19 @@
         <v>182365</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>158465</v>
+        <v>157807</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>206828</v>
+        <v>206744</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2331454772340182</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2025893146265043</v>
+        <v>0.2017492731451008</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2644199565655171</v>
+        <v>0.2643119250265878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>342</v>
@@ -6638,19 +6638,19 @@
         <v>362351</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>329660</v>
+        <v>328596</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>398504</v>
+        <v>398046</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2353341081074082</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.214102866277427</v>
+        <v>0.2134117477676237</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2588144592181789</v>
+        <v>0.2585169668704158</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>136013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116925</v>
+        <v>114440</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159982</v>
+        <v>158540</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1795471984043973</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1543500171434982</v>
+        <v>0.1510697003189809</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2111890644832538</v>
+        <v>0.2092842798530123</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>138</v>
@@ -6688,19 +6688,19 @@
         <v>152691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>127318</v>
+        <v>131064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>175941</v>
+        <v>176817</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1952085136593349</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1627698917417787</v>
+        <v>0.1675592129262657</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2249323721956482</v>
+        <v>0.2260526759512062</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>266</v>
@@ -6709,19 +6709,19 @@
         <v>288704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>258789</v>
+        <v>260256</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>323931</v>
+        <v>322312</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1875032887259953</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1680744989967891</v>
+        <v>0.1690269670180719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2103816780353669</v>
+        <v>0.2093303254933016</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>16696</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10047</v>
+        <v>10077</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27430</v>
+        <v>26143</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01784711359689986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01073978773531403</v>
+        <v>0.01077200319160557</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02932179640810213</v>
+        <v>0.02794581827387031</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -6834,19 +6834,19 @@
         <v>20504</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12318</v>
+        <v>12043</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31065</v>
+        <v>31875</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01966460202805072</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01181363026733196</v>
+        <v>0.01155013008105197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02979340199495903</v>
+        <v>0.03057099391129151</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -6855,19 +6855,19 @@
         <v>37199</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25709</v>
+        <v>25532</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52366</v>
+        <v>52331</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01880509935048747</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01299652742952206</v>
+        <v>0.01290691771403161</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02647228199062653</v>
+        <v>0.02645461450823299</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>130671</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>111051</v>
+        <v>110334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>153138</v>
+        <v>153221</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1396841118313522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1187103378510001</v>
+        <v>0.1179442726245539</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1637007287978683</v>
+        <v>0.1637891173945346</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>119</v>
@@ -6905,19 +6905,19 @@
         <v>126568</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>106192</v>
+        <v>103972</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>147703</v>
+        <v>148331</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.121389174491228</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1018465704465222</v>
+        <v>0.09971766827663857</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1416590199119203</v>
+        <v>0.1422609128254748</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>246</v>
@@ -6926,19 +6926,19 @@
         <v>257240</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>227836</v>
+        <v>230007</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>290135</v>
+        <v>289580</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1300409751630658</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1151764018245377</v>
+        <v>0.116274041687125</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.146670012414737</v>
+        <v>0.1463899208327692</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>306380</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>278397</v>
+        <v>278993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>335190</v>
+        <v>337036</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3275112037424034</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.297598967830501</v>
+        <v>0.298235493000476</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3583082958338708</v>
+        <v>0.3602818307931782</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>302</v>
@@ -6976,19 +6976,19 @@
         <v>314917</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>284627</v>
+        <v>285447</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>344970</v>
+        <v>345129</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3020298093427495</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.27298019533614</v>
+        <v>0.2737664073331773</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3308532404826728</v>
+        <v>0.331006218728485</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>607</v>
@@ -6997,19 +6997,19 @@
         <v>621296</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>580826</v>
+        <v>582705</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>663061</v>
+        <v>663001</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3140801345823326</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2936216694769983</v>
+        <v>0.294571349504747</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3351931529135655</v>
+        <v>0.3351631616417932</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>338765</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>310060</v>
+        <v>310356</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>366710</v>
+        <v>367743</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.362130390161145</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3314459623403475</v>
+        <v>0.3317620185474027</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3920023185915535</v>
+        <v>0.3931069431855995</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>316</v>
@@ -7047,19 +7047,19 @@
         <v>344426</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>315831</v>
+        <v>317858</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>377978</v>
+        <v>378849</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3303315870814195</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3029068204323885</v>
+        <v>0.3048512289720413</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3625111304627291</v>
+        <v>0.363345853065934</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>657</v>
@@ -7068,19 +7068,19 @@
         <v>683191</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>636487</v>
+        <v>639330</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>727853</v>
+        <v>725497</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3453694579816617</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3217594824632313</v>
+        <v>0.3231967028352459</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3679470559395437</v>
+        <v>0.366756308617553</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>142966</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>120998</v>
+        <v>121871</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>165205</v>
+        <v>167912</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1528271806681996</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.12934396132218</v>
+        <v>0.1302762881196077</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1765994941823749</v>
+        <v>0.1794930625116478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>202</v>
@@ -7118,19 +7118,19 @@
         <v>236253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>207772</v>
+        <v>206847</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>264361</v>
+        <v>263527</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2265848270565523</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1992701364585657</v>
+        <v>0.1983829394589182</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2535426225983146</v>
+        <v>0.2527427453066913</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>343</v>
@@ -7139,19 +7139,19 @@
         <v>379219</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>343092</v>
+        <v>343939</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>418149</v>
+        <v>417324</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1917043329224524</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1734412204595727</v>
+        <v>0.1738696172866262</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2113842047374255</v>
+        <v>0.210967230016528</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>34330</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23054</v>
+        <v>24103</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47552</v>
+        <v>47436</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01013571845558139</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006806780103807277</v>
+        <v>0.007116446446028751</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01403966143253429</v>
+        <v>0.01400533086858497</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -7264,19 +7264,19 @@
         <v>45855</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33229</v>
+        <v>33307</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>59849</v>
+        <v>60692</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0129553697511933</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009387979780402556</v>
+        <v>0.009410106007018136</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01690887449108361</v>
+        <v>0.01714727251338088</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>75</v>
@@ -7285,19 +7285,19 @@
         <v>80185</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63500</v>
+        <v>64006</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>99997</v>
+        <v>101133</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01157658164301433</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009167760895637197</v>
+        <v>0.009240739822002506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01443701952811992</v>
+        <v>0.0146009473001857</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>477716</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>437520</v>
+        <v>435796</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>524206</v>
+        <v>521111</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1410446012491911</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.129176863074051</v>
+        <v>0.1286678042377939</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1547707679416</v>
+        <v>0.1538568758919696</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>380</v>
@@ -7335,19 +7335,19 @@
         <v>392288</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>355358</v>
+        <v>359270</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>433248</v>
+        <v>430254</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1108324572410888</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1003986466527524</v>
+        <v>0.1015038412015932</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1224045298240671</v>
+        <v>0.1215587512607695</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>823</v>
@@ -7356,19 +7356,19 @@
         <v>870005</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>818300</v>
+        <v>811489</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>923960</v>
+        <v>918118</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1256059666270861</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1181411350398141</v>
+        <v>0.1171578579919182</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.133395667756845</v>
+        <v>0.1325523347712562</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>1209999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1157628</v>
+        <v>1155679</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1264437</v>
+        <v>1271269</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3572495590412988</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3417870501726683</v>
+        <v>0.341211720780778</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3733221369250166</v>
+        <v>0.3753393216962791</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1128</v>
@@ -7406,19 +7406,19 @@
         <v>1167700</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1112809</v>
+        <v>1110029</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1226388</v>
+        <v>1227948</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3299077685289673</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3143995787534583</v>
+        <v>0.3136142276278586</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3464888076145868</v>
+        <v>0.3469297504208666</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2264</v>
@@ -7427,19 +7427,19 @@
         <v>2377699</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2302959</v>
+        <v>2299227</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2459231</v>
+        <v>2460296</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3432776968152741</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3324871714399215</v>
+        <v>0.3319483952515195</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3550488234787998</v>
+        <v>0.3552025481104829</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1037127</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>984612</v>
+        <v>981897</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1090774</v>
+        <v>1090105</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3062093828014318</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2907044249817156</v>
+        <v>0.2899028766630907</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3220486104120733</v>
+        <v>0.3218509105744487</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1043</v>
@@ -7477,19 +7477,19 @@
         <v>1107354</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1048706</v>
+        <v>1045770</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1163154</v>
+        <v>1164179</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3128584352170354</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2962888467650264</v>
+        <v>0.2954591404133898</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3286234189457812</v>
+        <v>0.3289130749961695</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2052</v>
@@ -7498,19 +7498,19 @@
         <v>2144481</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2074984</v>
+        <v>2068089</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2232410</v>
+        <v>2227964</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3096070989913255</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2995736147213517</v>
+        <v>0.2985780335419864</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.322301783917351</v>
+        <v>0.321659926224679</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>627814</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>584795</v>
+        <v>586733</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>670390</v>
+        <v>674651</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1853607384524968</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1726592865552502</v>
+        <v>0.1732315659068471</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1979310706231757</v>
+        <v>0.1991892633619365</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>740</v>
@@ -7548,19 +7548,19 @@
         <v>826276</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>775734</v>
+        <v>778448</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>877674</v>
+        <v>882553</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2334459692617152</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2191665482554606</v>
+        <v>0.2199332982009041</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2479675316909678</v>
+        <v>0.2493459818591809</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1344</v>
@@ -7569,19 +7569,19 @@
         <v>1454090</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1386335</v>
+        <v>1387058</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1526399</v>
+        <v>1525995</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2099326559233</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2001506808028755</v>
+        <v>0.2002549447118294</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2203721977380997</v>
+        <v>0.2203138298551883</v>
       </c>
     </row>
     <row r="33">
